--- a/medicine/Pharmacie/Bêta-glucane_d'avoine/Bêta-glucane_d'avoine.xlsx
+++ b/medicine/Pharmacie/Bêta-glucane_d'avoine/Bêta-glucane_d'avoine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%AAta-glucane_d%27avoine</t>
+          <t>Bêta-glucane_d'avoine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bêta-glucane d’avoine est un bêta-glucane apparaissant naturellement dans l’albumen extérieur de l'avoine[1]. Une alimentation enrichie avec ce nutriment n'a pas d'effet significatif sur le cholestérol[2]. Il aurait un effet sur la cicatrisation des plaies altérée par les corticoïdes chez le rat[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bêta-glucane d’avoine est un bêta-glucane apparaissant naturellement dans l’albumen extérieur de l'avoine. Une alimentation enrichie avec ce nutriment n'a pas d'effet significatif sur le cholestérol. Il aurait un effet sur la cicatrisation des plaies altérée par les corticoïdes chez le rat
 </t>
         </is>
       </c>
